--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-220096.9829636519</v>
+        <v>-222561.0464073567</v>
       </c>
     </row>
     <row r="7">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>155.8380202720375</v>
       </c>
       <c r="D2" t="n">
-        <v>57.92556443677427</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>28.15378231230236</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>260.9640446500375</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>129.5398680316077</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>319.0140561628878</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.98865184815382</v>
+        <v>168.7309055946751</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>22.8612547851289</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>221.1016003276211</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>125.9151012567421</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819331</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>104.8913819999833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>211.1474991249032</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>13.74238375877684</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3.006892987834567</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>240.7377005646558</v>
+        <v>178.9060413124575</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238239</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>23.10998325717085</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176289</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856421</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890381</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>66.85274231757823</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>102.9630220374177</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="33">
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888251</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>224.1675592379414</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3904,13 +3904,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>13.74238375877706</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796274</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392158</v>
+        <v>764.3583141906979</v>
       </c>
       <c r="D2" t="n">
-        <v>494.2972677909589</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919561</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943749</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.09613355694</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275813</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614562</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609106</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635991</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686093</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064768</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080147</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986321</v>
+        <v>920.7416649986295</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291645</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547495</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341962</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577008</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>456.9449278938906</v>
+        <v>2322.222117337203</v>
       </c>
       <c r="C4" t="n">
-        <v>456.9449278938906</v>
+        <v>2153.285934409296</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>2003.169294996961</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>1855.256201414567</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3207.337200414877</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>3207.337200414877</v>
       </c>
       <c r="U4" t="n">
-        <v>1160.411546141325</v>
+        <v>3207.337200414877</v>
       </c>
       <c r="V4" t="n">
-        <v>905.7270579354381</v>
+        <v>2952.65271220899</v>
       </c>
       <c r="W4" t="n">
-        <v>905.7270579354381</v>
+        <v>2952.65271220899</v>
       </c>
       <c r="X4" t="n">
-        <v>677.7375070374208</v>
+        <v>2724.663161310973</v>
       </c>
       <c r="Y4" t="n">
-        <v>456.9449278938906</v>
+        <v>2503.870582167443</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1548.419770374778</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.419770374778</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410104</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066533</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2308.48536869998</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1935.019610438899</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.019610438899</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,22 +4668,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>549.3683227675136</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>380.4321398396067</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396067</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672848</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556436</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X7" t="n">
-        <v>812.5736815556436</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="Y7" t="n">
-        <v>591.7811024121135</v>
+        <v>850.8032380291689</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.638712032432</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C8" t="n">
-        <v>1255.67619509202</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D8" t="n">
-        <v>897.41049648527</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>511.6222438870257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>100.6363390974182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>89.60429298281871</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>89.60429298281871</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883009</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539438</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269324</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008244</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032432</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548192</v>
+        <v>659.4316570185995</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145766</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>935.9190763285891</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.126497185059</v>
+        <v>659.4316570185995</v>
       </c>
     </row>
     <row r="11">
@@ -5033,43 +5033,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,16 +5112,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400763</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400763</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,40 +5288,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>577.8620388433919</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>408.925855915485</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2443.925817935984</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2261.070983590888</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2041.469518613829</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1752.394291958027</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1497.70980375214</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1208.292633715179</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>980.3030828171618</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>759.5105036736317</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5507,49 +5507,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>559.7594328861248</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>390.823249958218</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782918</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038303</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797704</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>1734.291686000755</v>
+        <v>1796.747907467618</v>
       </c>
       <c r="V19" t="n">
-        <v>1479.607197794873</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W19" t="n">
-        <v>1190.190027757912</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X19" t="n">
-        <v>962.2004768598947</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y19" t="n">
-        <v>741.4078977163646</v>
+        <v>803.8641191832228</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876679</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>411.963121559761</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578588</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000569</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179076</v>
       </c>
     </row>
     <row r="23">
@@ -5966,37 +5966,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2389.155899672379</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,13 +6236,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6361,16 +6361,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,37 +6382,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
         <v>1746.193029533436</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,16 +6534,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>699.2677182139842</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>530.3315352860773</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.073881198504</v>
       </c>
       <c r="W31" t="n">
-        <v>1329.698313085771</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X31" t="n">
-        <v>1101.708762187754</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y31" t="n">
-        <v>880.9161830442239</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="38">
@@ -7166,34 +7166,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="44">
@@ -7634,43 +7634,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7801,7 +7801,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7825,13 +7825,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>209.43487149897</v>
       </c>
       <c r="D2" t="n">
-        <v>296.7574771839087</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>108.9256658141062</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>112.9713457258362</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>43.72409101822909</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>75.37549921168775</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>134.8730892594395</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>63.36835372228709</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>45.44677382458832</v>
+        <v>107.2784330767866</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610415</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.494940240506</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>114.1735436840664</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>183.5599762991733</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>203.6630665685112</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1018899.146212528</v>
+        <v>1018899.146212529</v>
       </c>
     </row>
     <row r="3">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028983</v>
+        <v>274720.9666028986</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="D2" t="n">
         <v>307890.6636991062</v>
       </c>
       <c r="E2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="F2" t="n">
         <v>302679.9748837524</v>
-      </c>
-      <c r="F2" t="n">
-        <v>302679.9748837522</v>
       </c>
       <c r="G2" t="n">
         <v>302679.9748837523</v>
@@ -26332,19 +26332,19 @@
         <v>302679.9748837523</v>
       </c>
       <c r="I2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="J2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="K2" t="n">
         <v>302679.9748837523</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>302679.9748837524</v>
       </c>
-      <c r="L2" t="n">
-        <v>302679.9748837522</v>
-      </c>
       <c r="M2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="N2" t="n">
         <v>302679.9748837522</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>2.07046923605958e-10</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41088.16559560943</v>
+        <v>41088.16559560997</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316933</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316935</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26442,19 +26442,19 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181816</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
         <v>20377.7794449116</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1203045.885281697</v>
+        <v>-1203267.016595671</v>
       </c>
       <c r="C6" t="n">
         <v>108382.7681845432</v>
       </c>
       <c r="D6" t="n">
-        <v>108382.7681845437</v>
+        <v>108382.7681845435</v>
       </c>
       <c r="E6" t="n">
-        <v>-136241.9369293284</v>
+        <v>-136276.6748547638</v>
       </c>
       <c r="F6" t="n">
-        <v>189170.5248780272</v>
+        <v>189135.7869525914</v>
       </c>
       <c r="G6" t="n">
-        <v>189170.524878027</v>
+        <v>189135.7869525914</v>
       </c>
       <c r="H6" t="n">
-        <v>189170.524878027</v>
+        <v>189135.7869525913</v>
       </c>
       <c r="I6" t="n">
-        <v>189170.524878027</v>
+        <v>189135.7869525912</v>
       </c>
       <c r="J6" t="n">
-        <v>-28360.67751925047</v>
+        <v>-28395.41544468593</v>
       </c>
       <c r="K6" t="n">
-        <v>189170.5248780271</v>
+        <v>189135.7869525913</v>
       </c>
       <c r="L6" t="n">
-        <v>189170.524878027</v>
+        <v>189135.7869525913</v>
       </c>
       <c r="M6" t="n">
-        <v>104115.4969425153</v>
+        <v>104080.7590170797</v>
       </c>
       <c r="N6" t="n">
-        <v>189170.5248780271</v>
+        <v>189135.7869525913</v>
       </c>
       <c r="O6" t="n">
-        <v>189170.5248780269</v>
+        <v>189135.7869525913</v>
       </c>
       <c r="P6" t="n">
         <v>164921.0504066471</v>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>297.9503799276052</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>297.9503799276172</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>161.6152430191395</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>25.24779355557541</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>253.1939736318729</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>30.2269125545252</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>137.8433283337835</v>
+        <v>11.10107458726225</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>18.71567498779705</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>165.1363383284325</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.33171984188571</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="33">
@@ -30271,13 +30271,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,19 +31841,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>305.5427724581384</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33181,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,16 +33263,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.544175081759</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34448,10 +34448,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>688.8020111197787</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,16 +35729,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326294939</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>165.5609983721169</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,13 +36914,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>546.2057666753343</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
